--- a/Hardware/CA/BOM.xlsx
+++ b/Hardware/CA/BOM.xlsx
@@ -616,7 +616,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -731,6 +731,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -860,11 +875,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1190,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1268,72 +1286,80 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>3</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>4</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>5</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
@@ -1395,21 +1421,23 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>9</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
@@ -1433,21 +1461,23 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>11</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
@@ -1471,24 +1501,25 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>13</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
@@ -1512,228 +1543,253 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>15</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>3904</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>16</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>13</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>17</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>18</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
         <v>19</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
         <v>20</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
         <v>21</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
         <v>22</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
         <v>23</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>20</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
         <v>24</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
         <v>25</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
         <v>26</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>2</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
         <v>27</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
